--- a/data/extracted_data/raw_round1/timeseries/Camacho-Munoz_etal_2021_Figs3+5.xlsx
+++ b/data/extracted_data/raw_round1/timeseries/Camacho-Munoz_etal_2021_Figs3+5.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round1/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751BE9F-CA63-EB4E-8193-053E56F563FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEBE38B-B851-D345-91C1-D1A9C6B33D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{246348BB-2E00-0A4A-933D-B4FB1C89D02D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="23">
   <si>
     <t>day</t>
   </si>
@@ -94,6 +98,18 @@
   <si>
     <t>Figure 5</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -134,8 +150,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +177,1246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45978.453582291666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="126" xr:uid="{253E2D98-0047-C641-A7D8-94692B8482B2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F127" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="figure" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Figure 3"/>
+        <s v="Figure 5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="species" numFmtId="0">
+      <sharedItems count="2">
+        <s v="tissue"/>
+        <s v="extrapial fluid"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="7">
+        <s v="NOD"/>
+        <s v="MC-LR"/>
+        <s v="MC-LF"/>
+        <s v="L-NOD"/>
+        <s v="MC-LY"/>
+        <s v="Asp3"/>
+        <s v="MC-LW"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="phase" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Uptake"/>
+        <s v="Depuration"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="30" count="13">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="12"/>
+        <n v="15"/>
+        <n v="18"/>
+        <n v="21"/>
+        <n v="24"/>
+        <n v="27"/>
+        <n v="30"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9426695009355701E-3" maxValue="166.473988439306"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="126">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.34138932072717898"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.0097560201783"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.1706510358831099"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.5394365303467701"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1.7390383578159201"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1.3465766680414899"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.96462451219899104"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0.63906691202132004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0.99956375519527896"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0.58001522890954604"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.60214473809448199"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0.17319711919794401"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0.34579142739300001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.125051556204193"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.50212570195754802"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.53143342111107505"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.67472001015260596"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.75213363368127095"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.51945651829055395"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.32548621466416999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0.21602842729781899"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0.332148862590817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0.20405152447729899"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.160387385386592"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="7.9206193089881902E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0.10141501951204"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.7375868523747305E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.23903042609219699"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.24961927726133301"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.33643199340080499"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.357451061264634"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.275159427646816"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.18457914273929901"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0.159713188870204"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0.23831657095719999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0.16645515403407399"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.122791014943367"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0.1074034709223"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="9.2015926901233905E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.9938132554966097E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7.9325168945714994E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8.9834702877629097E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.129651955963069"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.10367556077286599"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9.6576668041498698E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="6.2311621561597003E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="4.6924077540530601E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="5.0255401503854498E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="5.3666042704400202E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="5.7076683904945899E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="6.9886417716297805E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="4.4941146609980699E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.1740854722547699E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9.8044036930104994E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.108553570862019"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="9.2055585519845204E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.10367556077286599"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="8.7177575430692406E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="6.2311621561597003E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="4.6924077540530601E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="7.8452679336272896E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="7.2464227926012301E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="6.6475776515752205E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="8.8605285700688194E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="9.2095244138455698E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.9426695009355701E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.2250388654461802E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.3440147212791801E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.5661029855007902E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3.7961229734445302E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.07830197658551E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1.5316158507566501E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2.8125892318917999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2.2137440908658299E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="6.2985818077984701E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="6.6475776515752205E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="6.97277832418539E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="8.2537517053205403E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.7534502998191294E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.201513372886195"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.240220184650527"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.28943653034677402"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.31045559821060298"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.237563057203591"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.156381864906881"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0.13151591103778601"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0.16312383007074999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0.110060598369237"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.104072146958976"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="6.9807100479076095E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="6.3897966306037196E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="71.098265895953702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="127.456647398843"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="166.473988439306"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="80.491329479768694"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13.2947976878612"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="7.5144508670519397"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="11.1271676300577"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="6.7919075144508199"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="6.7919075144508199"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.300578034682001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50.867052023121303"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="63.150289017340903"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="27.023121387283101"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="6.0693641618496397"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.9017341040461702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="4.6242774566473397"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1.7341040462427399"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2.4566473988438702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.298330122029499"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15.301862556197699"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16.305394990366"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8.7789017341040108"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1.7541746949261201"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2.25594091201026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2.25594091201026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="3.2594733461785301"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2.7577071290943902"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.2665382145150303"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8.2771355170198699"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="9.2806679511881498"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="4.26300578034681"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1.7541746949261201"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2.25594091201026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1.7541746949261201"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1.25240847784198"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FDD173C-4BF1-A849-8DB3-0A4FC369D2DC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D031FBBA-DE6B-E04F-8D1E-584697A609A1}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +1747,7 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3025,8 +4291,691 @@
         <v>1.25240847784198</v>
       </c>
     </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0.71597290523176005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>2.162045115644522</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>2.4237523398584853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>3.097393635584877</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132">
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>3.4043910022526052</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>2.5932929344204974</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>1.771011136140102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+      <c r="F135">
+        <v>1.2682984866271083</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>1.8839985405628319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>21</v>
+      </c>
+      <c r="F137">
+        <v>1.2496985944985535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>24</v>
+      </c>
+      <c r="F138">
+        <v>1.1794235223198672</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>27</v>
+      </c>
+      <c r="F139">
+        <v>0.6578333703480419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>30</v>
+      </c>
+      <c r="F140">
+        <v>0.82269424791395296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>116.96371226718023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>201.90269749518188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>255.21034039820105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>116.2933526011558</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>7</v>
+      </c>
+      <c r="F145">
+        <v>25.38134232498377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>15.426300578034489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>20.26332691072556</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+      <c r="F148">
+        <v>13.53965960179821</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>18</v>
+      </c>
+      <c r="F149">
+        <v>13.25867052023106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3389E8-C607-2146-B3D5-5A9B6B6AB3E4}">
+  <dimension ref="A3:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>23.229805831403212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>23.229805831403212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.71597290523176005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2.162045115644522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2.4237523398584853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3.097393635584877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3.4043910022526052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.5932929344204974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.771011136140102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1.2682984866271083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1.8839985405628319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.2496985944985535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1.1794235223198672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.6578333703480419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.82269424791395296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>778.23940269749198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>778.23940269749198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>116.96371226718023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>201.90269749518188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>255.21034039820105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>116.2933526011558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>25.38134232498377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>15.426300578034489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>20.26332691072556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>13.53965960179821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>13.25867052023106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>801.46920852889525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>